--- a/hardware/doc-cpl.xlsx
+++ b/hardware/doc-cpl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\greenhouse-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\greenhouse-doc\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE58E2BE-B3D0-406E-A1F4-48A697B3CAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A23F5EB-8A67-456F-BF70-13066EBFBDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="2700" windowWidth="21810" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="615" windowWidth="16200" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Designator</t>
   </si>
@@ -94,9 +94,6 @@
     <t>J3</t>
   </si>
   <si>
-    <t>J4</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>R10</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>C7</t>
   </si>
   <si>
@@ -143,6 +137,27 @@
   </si>
   <si>
     <t>IC2</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>U3</t>
   </si>
 </sst>
 </file>
@@ -539,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D35"/>
+      <selection activeCell="D2" sqref="D2:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -573,30 +588,30 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4">
-        <v>-94.6</v>
+        <v>149.85499999999999</v>
       </c>
       <c r="C2" s="4">
-        <v>-67.599999999999994</v>
+        <v>-106.6</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
-        <v>-127.6</v>
+        <v>122.97499999999999</v>
       </c>
       <c r="C3" s="5">
-        <v>-64.599999999999994</v>
+        <v>-90.724999999999994</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
@@ -607,50 +622,50 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4">
-        <v>-115.175</v>
+        <v>157.5</v>
       </c>
       <c r="C4" s="4">
-        <v>-68.5</v>
+        <v>-84.495000000000005</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="4">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5">
-        <v>122.5</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="C5" s="5">
-        <v>-63.2</v>
+        <v>-104.5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4">
-        <v>96.2</v>
+        <v>93.75</v>
       </c>
       <c r="C6" s="4">
-        <v>-77.599999999999994</v>
+        <v>-90.51</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
         <v>180</v>
@@ -658,47 +673,47 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>124.65</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5">
-        <v>-63.2</v>
+        <v>-80.959999999999994</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>106.15</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4">
-        <v>-77.5</v>
+        <v>-112</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5">
-        <v>124.95</v>
+        <v>99</v>
       </c>
       <c r="C9" s="5">
-        <v>-68.849999999999994</v>
+        <v>-91.212500000000006</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>21</v>
@@ -709,83 +724,83 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4">
-        <v>125.65</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4">
-        <v>-71.400000000000006</v>
+        <v>-113</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>116.55</v>
+        <v>98.25</v>
       </c>
       <c r="C11" s="5">
-        <v>-72.349999999999994</v>
+        <v>-96.412499999999994</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="5">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>120.45</v>
+        <v>86.2</v>
       </c>
       <c r="C12" s="4">
-        <v>-72.400000000000006</v>
+        <v>-102.2825</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="4">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>118.35</v>
+        <v>84</v>
       </c>
       <c r="C13" s="5">
-        <v>-72.400000000000006</v>
+        <v>-102.2825</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="5">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4">
-        <v>125.65</v>
+        <v>92.5</v>
       </c>
       <c r="C14" s="4">
-        <v>-73.03</v>
+        <v>-98</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>21</v>
@@ -797,49 +812,49 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5">
-        <v>116.35</v>
+        <v>92.5</v>
       </c>
       <c r="C15" s="5">
-        <v>-59.8</v>
+        <v>-102.5</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="5">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4">
-        <v>120.05</v>
+        <v>92.5</v>
       </c>
       <c r="C16" s="4">
-        <v>-63.5</v>
+        <v>-100.25</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="4">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5">
-        <v>122.65</v>
+        <v>83.5</v>
       </c>
       <c r="C17" s="5">
-        <v>-72.150000000000006</v>
+        <v>-98.75</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>21</v>
@@ -851,13 +866,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4">
-        <v>122.15</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="C18" s="4">
-        <v>-58.6</v>
+        <v>-90.15</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>21</v>
@@ -869,49 +884,49 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5">
-        <v>151</v>
+        <v>70.25</v>
       </c>
       <c r="C19" s="5">
-        <v>-61</v>
+        <v>-99.85</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4">
-        <v>142</v>
+        <v>70.25</v>
       </c>
       <c r="C20" s="4">
-        <v>-72.8</v>
+        <v>-103.8875</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B21" s="5">
-        <v>121.75</v>
+        <v>79</v>
       </c>
       <c r="C21" s="5">
-        <v>-68.400000000000006</v>
+        <v>-112</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>21</v>
@@ -923,31 +938,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4">
-        <v>133.4</v>
+        <v>89.1</v>
       </c>
       <c r="C22" s="4">
-        <v>-60.6</v>
+        <v>-102.25</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="4">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B23" s="5">
-        <v>129.19999999999999</v>
+        <v>71.637500000000003</v>
       </c>
       <c r="C23" s="5">
-        <v>-60.6</v>
+        <v>-112.2</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>21</v>
@@ -959,31 +974,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>117.65</v>
+        <v>91.25</v>
       </c>
       <c r="C24" s="4">
-        <v>-63.4</v>
+        <v>-106.42</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="4">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5">
-        <v>115.85</v>
+        <v>164</v>
       </c>
       <c r="C25" s="5">
-        <v>-76.212500000000006</v>
+        <v>-110.4</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>21</v>
@@ -995,66 +1010,66 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>113.85</v>
+        <v>156.4</v>
       </c>
       <c r="C26" s="4">
-        <v>-76.212500000000006</v>
+        <v>-110.4</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="4">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="5">
-        <v>114</v>
+        <v>84.25</v>
       </c>
       <c r="C27" s="5">
-        <v>-59.8</v>
+        <v>-114</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="5">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B28" s="4">
-        <v>114</v>
+        <v>98.25</v>
       </c>
       <c r="C28" s="4">
-        <v>-63.412500000000001</v>
+        <v>-100.75</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="4">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B29" s="5">
-        <v>133.4</v>
+        <v>98.25</v>
       </c>
       <c r="C29" s="5">
-        <v>-57.6</v>
+        <v>-98.612499999999997</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>21</v>
@@ -1065,81 +1080,81 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B30" s="4">
-        <v>102.15</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C30" s="4">
-        <v>-77.55</v>
+        <v>-103.8875</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="4">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
-        <v>125.65</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C31" s="5">
-        <v>-74.599999999999994</v>
+        <v>-99.887500000000003</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4">
-        <v>125.66249999999999</v>
+        <v>164</v>
       </c>
       <c r="C32" s="4">
-        <v>-76.180000000000007</v>
+        <v>-107.4</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="4">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B33" s="5">
-        <v>129.19999999999999</v>
+        <v>98.25</v>
       </c>
       <c r="C33" s="5">
-        <v>-57.6</v>
+        <v>-94.212500000000006</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4">
-        <v>102.25</v>
+        <v>85.5</v>
       </c>
       <c r="C34" s="4">
-        <v>-66.599999999999994</v>
+        <v>-98.75</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>21</v>
@@ -1150,18 +1165,103 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5">
-        <v>121.07</v>
+        <v>87.5</v>
       </c>
       <c r="C35" s="5">
-        <v>-77.400000000000006</v>
+        <v>-98.75</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="5">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4">
+        <v>156.4</v>
+      </c>
+      <c r="C36" s="4">
+        <v>-107.4</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="5">
+        <v>89.5</v>
+      </c>
+      <c r="C37" s="5">
+        <v>-98.75</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="4">
+        <v>72.75</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-93</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="4">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="5">
+        <v>111</v>
+      </c>
+      <c r="C39" s="5">
+        <v>-98.25</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="4">
+        <v>75</v>
+      </c>
+      <c r="C40" s="4">
+        <v>-82.25</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="4">
         <v>180</v>
       </c>
     </row>
